--- a/02.descargable/XLSX/01.XLSX correctos/devoluciones.xlsx
+++ b/02.descargable/XLSX/01.XLSX correctos/devoluciones.xlsx
@@ -502,50 +502,50 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>C-000029</t>
+          <t>C-001642</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CL-07458</t>
+          <t>CL-01427</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ET-00029</t>
+          <t>ET-01642</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>P-018985</t>
+          <t>P-031723</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>PR-00200</t>
+          <t>PR-00619</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>BR-00488</t>
+          <t>BR-00031</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>E-012809</t>
+          <t>E-000913</t>
         </is>
       </c>
       <c r="I2" s="2" t="n">
-        <v>45714</v>
+        <v>45742</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Recibí otro artículo</t>
+          <t>Tamaño incorrecto</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Procesada</t>
+          <t>Rechazada</t>
         </is>
       </c>
     </row>
@@ -557,45 +557,45 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>C-001314</t>
+          <t>C-004696</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CL-05220</t>
+          <t>CL-03466</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ET-01314</t>
+          <t>ET-04696</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>P-014301</t>
+          <t>P-010795</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>PR-00154</t>
+          <t>PR-01011</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>BR-00277</t>
+          <t>BR-00251</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>E-007556</t>
+          <t>E-006686</t>
         </is>
       </c>
       <c r="I3" s="2" t="n">
-        <v>45716</v>
+        <v>45768</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>No funciona correctamente</t>
+          <t>Vencido o caducado</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -612,45 +612,45 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>C-002441</t>
+          <t>C-003494</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CL-02169</t>
+          <t>CL-00562</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>ET-02441</t>
+          <t>ET-03494</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>P-037804</t>
+          <t>P-020096</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>PR-01484</t>
+          <t>PR-01186</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>BR-00154</t>
+          <t>BR-00180</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>E-004171</t>
+          <t>E-004798</t>
         </is>
       </c>
       <c r="I4" s="2" t="n">
-        <v>45813</v>
+        <v>45725</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Cambio de opinión</t>
+          <t>Cliente no lo reconoce</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -667,45 +667,45 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>C-001476</t>
+          <t>C-003048</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CL-08837</t>
+          <t>CL-01502</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ET-01476</t>
+          <t>ET-03048</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>P-024206</t>
+          <t>P-001258</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>PR-01116</t>
+          <t>PR-00017</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>BR-00457</t>
+          <t>BR-00007</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>E-011888</t>
+          <t>E-000436</t>
         </is>
       </c>
       <c r="I5" s="2" t="n">
-        <v>45800</v>
+        <v>45730</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Problema con el embalaje</t>
+          <t>Pedido duplicado</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -722,45 +722,45 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>C-001477</t>
+          <t>C-002273</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CL-05042</t>
+          <t>CL-07586</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ET-01477</t>
+          <t>ET-02273</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>P-044405</t>
+          <t>P-009203</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>PR-00877</t>
+          <t>PR-01373</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>BR-00310</t>
+          <t>BR-00308</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>E-008352</t>
+          <t>E-008088</t>
         </is>
       </c>
       <c r="I6" s="2" t="n">
-        <v>45871</v>
+        <v>45840</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Producto defectuoso</t>
+          <t>Vencido o caducado</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -777,45 +777,45 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>C-002265</t>
+          <t>C-003549</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CL-09223</t>
+          <t>CL-01301</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ET-02265</t>
+          <t>ET-03549</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>P-046835</t>
+          <t>P-047687</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>PR-00564</t>
+          <t>PR-00528</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>BR-00241</t>
+          <t>BR-00431</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>E-006616</t>
+          <t>E-011414</t>
         </is>
       </c>
       <c r="I7" s="2" t="n">
-        <v>45734</v>
+        <v>45791</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Error en el pedido</t>
+          <t>Tamaño incorrecto</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -832,50 +832,50 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>C-000421</t>
+          <t>C-002694</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CL-04784</t>
+          <t>CL-03264</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>ET-00421</t>
+          <t>ET-02694</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>P-013246</t>
+          <t>P-049113</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>PR-00149</t>
+          <t>PR-01013</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>BR-00118</t>
+          <t>BR-00447</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>E-003287</t>
+          <t>E-011647</t>
         </is>
       </c>
       <c r="I8" s="2" t="n">
-        <v>45750</v>
+        <v>45869</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Cambio de opinión</t>
+          <t>Tamaño incorrecto</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Rechazada</t>
         </is>
       </c>
     </row>
@@ -887,50 +887,50 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>C-000640</t>
+          <t>C-001660</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CL-06990</t>
+          <t>CL-00940</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>ET-00640</t>
+          <t>ET-01660</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>P-038537</t>
+          <t>P-048530</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>PR-00433</t>
+          <t>PR-00551</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>BR-00349</t>
+          <t>BR-00440</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>E-009363</t>
+          <t>E-011574</t>
         </is>
       </c>
       <c r="I9" s="2" t="n">
-        <v>45868</v>
+        <v>45742</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Cliente no lo reconoce</t>
+          <t>Retraso en la entrega</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Rechazada</t>
+          <t>Procesada</t>
         </is>
       </c>
     </row>
@@ -942,50 +942,50 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>C-002886</t>
+          <t>C-004185</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CL-07035</t>
+          <t>CL-02236</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>ET-02886</t>
+          <t>ET-04185</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>P-050557</t>
+          <t>P-004518</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>PR-00572</t>
+          <t>PR-00696</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>BR-00168</t>
+          <t>BR-00040</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>E-004676</t>
+          <t>E-001167</t>
         </is>
       </c>
       <c r="I10" s="2" t="n">
-        <v>45857</v>
+        <v>45840</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Problema con el embalaje</t>
+          <t>Vencido o caducado</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Procesada</t>
+          <t>Pendiente</t>
         </is>
       </c>
     </row>
@@ -997,45 +997,45 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>C-001758</t>
+          <t>C-002490</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>CL-07104</t>
+          <t>CL-06599</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>ET-01758</t>
+          <t>ET-02490</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>P-025793</t>
+          <t>P-026458</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>PR-00841</t>
+          <t>PR-01010</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>BR-00233</t>
+          <t>BR-00469</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>E-006301</t>
+          <t>E-012391</t>
         </is>
       </c>
       <c r="I11" s="2" t="n">
-        <v>45716</v>
+        <v>45784</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Producto incompleto</t>
+          <t>No funciona correctamente</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1052,50 +1052,50 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>C-002206</t>
+          <t>C-002049</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>CL-09930</t>
+          <t>CL-06682</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>ET-02206</t>
+          <t>ET-02049</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>P-003635</t>
+          <t>P-007297</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>PR-01370</t>
+          <t>PR-01234</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>BR-00031</t>
+          <t>BR-00063</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>E-000950</t>
+          <t>E-001852</t>
         </is>
       </c>
       <c r="I12" s="2" t="n">
-        <v>45879</v>
+        <v>45717</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>No funciona correctamente</t>
+          <t>Llegó dañado</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Rechazada</t>
         </is>
       </c>
     </row>
@@ -1107,45 +1107,45 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>C-004210</t>
+          <t>C-000521</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>CL-01084</t>
+          <t>CL-06898</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>ET-04210</t>
+          <t>ET-00521</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>P-029866</t>
+          <t>P-010416</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>PR-00650</t>
+          <t>PR-01257</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>BR-00110</t>
+          <t>BR-00090</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>E-002929</t>
+          <t>E-002626</t>
         </is>
       </c>
       <c r="I13" s="2" t="n">
-        <v>45828</v>
+        <v>45771</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Producto defectuoso</t>
+          <t>Error en el pedido</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1162,45 +1162,45 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>C-001851</t>
+          <t>C-003097</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>CL-00561</t>
+          <t>CL-02749</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>ET-01851</t>
+          <t>ET-03097</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>P-000535</t>
+          <t>P-028965</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>PR-00036</t>
+          <t>PR-00291</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>BR-00003</t>
+          <t>BR-00264</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>E-000303</t>
+          <t>E-006805</t>
         </is>
       </c>
       <c r="I14" s="2" t="n">
-        <v>45761</v>
+        <v>45876</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Producto defectuoso</t>
+          <t>Producto incompleto</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1217,50 +1217,50 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>C-001767</t>
+          <t>C-004888</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>CL-09380</t>
+          <t>CL-03920</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>ET-01767</t>
+          <t>ET-04888</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>P-031455</t>
+          <t>P-053006</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>PR-00341</t>
+          <t>PR-00730</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>BR-00118</t>
+          <t>BR-00326</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>E-003315</t>
+          <t>E-008605</t>
         </is>
       </c>
       <c r="I15" s="2" t="n">
-        <v>45766</v>
+        <v>45857</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Problema con el embalaje</t>
+          <t>Llegó dañado</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Rechazada</t>
+          <t>Pendiente</t>
         </is>
       </c>
     </row>
@@ -1272,45 +1272,45 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>C-002225</t>
+          <t>C-000737</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>CL-02649</t>
+          <t>CL-06650</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>ET-02225</t>
+          <t>ET-00737</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>P-029493</t>
+          <t>P-011792</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>PR-00734</t>
+          <t>PR-00102</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>BR-00268</t>
+          <t>BR-00104</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>E-007121</t>
+          <t>E-002842</t>
         </is>
       </c>
       <c r="I16" s="2" t="n">
-        <v>45854</v>
+        <v>45825</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Error en el pedido</t>
+          <t>Retraso en la entrega</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1327,50 +1327,50 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>C-001801</t>
+          <t>C-000139</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>CL-09336</t>
+          <t>CL-06158</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>ET-01801</t>
+          <t>ET-00139</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>P-049728</t>
+          <t>P-035066</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>PR-01255</t>
+          <t>PR-00411</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>BR-00455</t>
+          <t>BR-00316</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>E-011841</t>
+          <t>E-008423</t>
         </is>
       </c>
       <c r="I17" s="2" t="n">
-        <v>45850</v>
+        <v>45764</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Producto incompleto</t>
+          <t>Cliente no lo reconoce</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Procesada</t>
         </is>
       </c>
     </row>
@@ -1382,50 +1382,50 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>C-001126</t>
+          <t>C-002387</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>CL-06936</t>
+          <t>CL-09560</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>ET-01126</t>
+          <t>ET-02387</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>P-045021</t>
+          <t>P-030803</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>PR-00877</t>
+          <t>PR-00376</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>BR-00409</t>
+          <t>BR-00438</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>E-010792</t>
+          <t>E-011544</t>
         </is>
       </c>
       <c r="I18" s="2" t="n">
-        <v>45737</v>
+        <v>45738</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>No coincide con la descripción</t>
+          <t>Cliente no lo reconoce</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Rechazada</t>
+          <t>Procesada</t>
         </is>
       </c>
     </row>
@@ -1437,45 +1437,45 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>C-003143</t>
+          <t>C-001678</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>CL-09026</t>
+          <t>CL-05528</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>ET-03143</t>
+          <t>ET-01678</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>P-019634</t>
+          <t>P-024277</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>PR-00222</t>
+          <t>PR-00971</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>BR-00175</t>
+          <t>BR-00219</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>E-004797</t>
+          <t>E-005781</t>
         </is>
       </c>
       <c r="I19" s="2" t="n">
-        <v>45763</v>
+        <v>45744</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Cambio de opinión</t>
+          <t>Calidad inferior a lo esperado</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1492,45 +1492,45 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>C-003293</t>
+          <t>C-002031</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>CL-01750</t>
+          <t>CL-08118</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>ET-03293</t>
+          <t>ET-02031</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>P-044781</t>
+          <t>P-038533</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>PR-01405</t>
+          <t>PR-00432</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>BR-00406</t>
+          <t>BR-00305</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>E-010768</t>
+          <t>E-007843</t>
         </is>
       </c>
       <c r="I20" s="2" t="n">
-        <v>45827</v>
+        <v>45879</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Retraso en la entrega</t>
+          <t>Tamaño incorrecto</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1547,50 +1547,50 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>C-003503</t>
+          <t>C-000069</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>CL-09717</t>
+          <t>CL-00787</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>ET-03503</t>
+          <t>ET-00069</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>P-028324</t>
+          <t>P-009486</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>PR-00841</t>
+          <t>PR-00639</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>BR-00256</t>
+          <t>BR-00083</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>E-006841</t>
+          <t>E-002411</t>
         </is>
       </c>
       <c r="I21" s="2" t="n">
-        <v>45774</v>
+        <v>45778</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>No funciona correctamente</t>
+          <t>Pedido duplicado</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Rechazada</t>
         </is>
       </c>
     </row>
@@ -1602,45 +1602,45 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>C-000238</t>
+          <t>C-003627</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>CL-06275</t>
+          <t>CL-01671</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>ET-00238</t>
+          <t>ET-03627</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>P-036935</t>
+          <t>P-004509</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>PR-00382</t>
+          <t>PR-00084</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>BR-00279</t>
+          <t>BR-00040</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>E-007587</t>
+          <t>E-001241</t>
         </is>
       </c>
       <c r="I22" s="2" t="n">
-        <v>45809</v>
+        <v>45741</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Producto incompleto</t>
+          <t>Llegó dañado</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -1657,50 +1657,50 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>C-000376</t>
+          <t>C-002876</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>CL-04079</t>
+          <t>CL-08450</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>ET-00376</t>
+          <t>ET-02876</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>P-014393</t>
+          <t>P-046375</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>PR-01185</t>
+          <t>PR-01163</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>BR-00126</t>
+          <t>BR-00422</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>E-003619</t>
+          <t>E-011065</t>
         </is>
       </c>
       <c r="I23" s="2" t="n">
-        <v>45829</v>
+        <v>45872</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Cambio de opinión</t>
+          <t>Retraso en la entrega</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Procesada</t>
+          <t>Pendiente</t>
         </is>
       </c>
     </row>
@@ -1712,50 +1712,50 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>C-003351</t>
+          <t>C-004655</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>CL-08970</t>
+          <t>CL-09975</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>ET-03351</t>
+          <t>ET-04655</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>P-002960</t>
+          <t>P-016574</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>PR-01370</t>
+          <t>PR-00855</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>BR-00023</t>
+          <t>BR-00151</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>E-000867</t>
+          <t>E-003874</t>
         </is>
       </c>
       <c r="I24" s="2" t="n">
-        <v>45808</v>
+        <v>45812</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Producto defectuoso</t>
+          <t>Cliente no lo reconoce</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Procesada</t>
+          <t>Rechazada</t>
         </is>
       </c>
     </row>
@@ -1767,50 +1767,50 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>C-002541</t>
+          <t>C-003661</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>CL-05632</t>
+          <t>CL-02558</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>ET-02541</t>
+          <t>ET-03661</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>P-047740</t>
+          <t>P-046195</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>PR-01424</t>
+          <t>PR-00547</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>BR-00432</t>
+          <t>BR-00386</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>E-011566</t>
+          <t>E-010183</t>
         </is>
       </c>
       <c r="I25" s="2" t="n">
-        <v>45760</v>
+        <v>45781</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Cambio de opinión</t>
+          <t>No coincide con la descripción</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Rechazada</t>
+          <t>Pendiente</t>
         </is>
       </c>
     </row>
@@ -1822,45 +1822,45 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>C-003352</t>
+          <t>C-003114</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>CL-01505</t>
+          <t>CL-01422</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>ET-03352</t>
+          <t>ET-03114</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>P-040546</t>
+          <t>P-026560</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>PR-01065</t>
+          <t>PR-00317</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>BR-00333</t>
+          <t>BR-00238</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>E-008825</t>
+          <t>E-006430</t>
         </is>
       </c>
       <c r="I26" s="2" t="n">
-        <v>45817</v>
+        <v>45723</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Cliente no lo reconoce</t>
+          <t>Error en el pedido</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -1877,50 +1877,50 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>C-001013</t>
+          <t>C-002153</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>CL-04877</t>
+          <t>CL-04418</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>ET-01013</t>
+          <t>ET-02153</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>P-034396</t>
+          <t>P-044621</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>PR-00388</t>
+          <t>PR-00506</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>BR-00381</t>
+          <t>BR-00215</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>E-009930</t>
+          <t>E-005742</t>
         </is>
       </c>
       <c r="I27" s="2" t="n">
-        <v>45756</v>
+        <v>45870</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Error en el pedido</t>
+          <t>Calidad inferior a lo esperado</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Procesada</t>
         </is>
       </c>
     </row>
@@ -1932,50 +1932,50 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>C-000157</t>
+          <t>C-004146</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>CL-07340</t>
+          <t>CL-03881</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>ET-00157</t>
+          <t>ET-04146</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>P-033733</t>
+          <t>P-023082</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>PR-00795</t>
+          <t>PR-00241</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>BR-00307</t>
+          <t>BR-00024</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>E-008172</t>
+          <t>E-000842</t>
         </is>
       </c>
       <c r="I28" s="2" t="n">
-        <v>45873</v>
+        <v>45845</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>No funciona correctamente</t>
+          <t>No coincide con la descripción</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Procesada</t>
+          <t>Pendiente</t>
         </is>
       </c>
     </row>
@@ -1987,50 +1987,50 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>C-001691</t>
+          <t>C-000860</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>CL-07337</t>
+          <t>CL-08617</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>ET-01691</t>
+          <t>ET-00860</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>P-040516</t>
+          <t>P-011716</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>PR-00739</t>
+          <t>PR-00102</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>BR-00346</t>
+          <t>BR-00103</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>E-009229</t>
+          <t>E-002835</t>
         </is>
       </c>
       <c r="I29" s="2" t="n">
-        <v>45759</v>
+        <v>45853</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Problema con el embalaje</t>
+          <t>Producto incompleto</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Procesada</t>
         </is>
       </c>
     </row>
@@ -2042,50 +2042,50 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>C-001757</t>
+          <t>C-001640</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>CL-07619</t>
+          <t>CL-07113</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>ET-01757</t>
+          <t>ET-01640</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>P-046965</t>
+          <t>P-037218</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>PR-00560</t>
+          <t>PR-00383</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>BR-00426</t>
+          <t>BR-00340</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>E-011397</t>
+          <t>E-008728</t>
         </is>
       </c>
       <c r="I30" s="2" t="n">
-        <v>45844</v>
+        <v>45822</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Retraso en la entrega</t>
+          <t>Cambio de opinión</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Procesada</t>
+          <t>Rechazada</t>
         </is>
       </c>
     </row>
@@ -2097,50 +2097,50 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>C-002175</t>
+          <t>C-001550</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>CL-07804</t>
+          <t>CL-00766</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>ET-02175</t>
+          <t>ET-01550</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>P-035447</t>
+          <t>P-028346</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>PR-00421</t>
+          <t>PR-00290</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>BR-00133</t>
+          <t>BR-00256</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>E-003731</t>
+          <t>E-006752</t>
         </is>
       </c>
       <c r="I31" s="2" t="n">
-        <v>45774</v>
+        <v>45846</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Problema con el embalaje</t>
+          <t>Producto incompleto</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Procesada</t>
+          <t>Pendiente</t>
         </is>
       </c>
     </row>
@@ -2152,41 +2152,41 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>C-004736</t>
+          <t>C-002477</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>CL-06718</t>
+          <t>CL-06109</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>ET-04736</t>
+          <t>ET-02477</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>P-008746</t>
+          <t>P-002550</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>PR-01322</t>
+          <t>PR-00006</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>BR-00078</t>
+          <t>BR-00019</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>E-002144</t>
+          <t>E-000760</t>
         </is>
       </c>
       <c r="I32" s="2" t="n">
-        <v>45739</v>
+        <v>45724</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -2195,7 +2195,7 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Rechazada</t>
+          <t>Pendiente</t>
         </is>
       </c>
     </row>
@@ -2207,50 +2207,50 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>C-003179</t>
+          <t>C-000598</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>CL-02096</t>
+          <t>CL-07489</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>ET-03179</t>
+          <t>ET-00598</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>P-017733</t>
+          <t>P-036506</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>PR-00226</t>
+          <t>PR-00412</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>BR-00311</t>
+          <t>BR-00237</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>E-008369</t>
+          <t>E-006424</t>
         </is>
       </c>
       <c r="I33" s="2" t="n">
-        <v>45793</v>
+        <v>45777</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Producto incompleto</t>
+          <t>Vencido o caducado</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Rechazada</t>
+          <t>Procesada</t>
         </is>
       </c>
     </row>
@@ -2262,45 +2262,45 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>C-000807</t>
+          <t>C-002744</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>CL-04298</t>
+          <t>CL-04319</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>ET-00807</t>
+          <t>ET-02744</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>P-022594</t>
+          <t>P-018181</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>PR-01137</t>
+          <t>PR-00816</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>BR-00400</t>
+          <t>BR-00385</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>E-010662</t>
+          <t>E-010149</t>
         </is>
       </c>
       <c r="I34" s="2" t="n">
-        <v>45763</v>
+        <v>45715</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Problema con el embalaje</t>
+          <t>Error en el pedido</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -2317,50 +2317,50 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>C-003976</t>
+          <t>C-002986</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>CL-07828</t>
+          <t>CL-07392</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>ET-03976</t>
+          <t>ET-02986</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>P-010358</t>
+          <t>P-007646</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>PR-00137</t>
+          <t>PR-00084</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>BR-00040</t>
+          <t>BR-00067</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>E-001228</t>
+          <t>E-001878</t>
         </is>
       </c>
       <c r="I35" s="2" t="n">
-        <v>45848</v>
+        <v>45743</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Error en el pedido</t>
+          <t>Calidad inferior a lo esperado</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Rechazada</t>
         </is>
       </c>
     </row>
@@ -2372,41 +2372,41 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>C-001980</t>
+          <t>C-003898</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>CL-08839</t>
+          <t>CL-01648</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>ET-01980</t>
+          <t>ET-03898</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>P-046929</t>
+          <t>P-041718</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>PR-00557</t>
+          <t>PR-00475</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>BR-00425</t>
+          <t>BR-00192</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>E-011351</t>
+          <t>E-005100</t>
         </is>
       </c>
       <c r="I36" s="2" t="n">
-        <v>45836</v>
+        <v>45802</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -2415,7 +2415,7 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Rechazada</t>
+          <t>Pendiente</t>
         </is>
       </c>
     </row>
@@ -2427,50 +2427,50 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>C-000914</t>
+          <t>C-001606</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>CL-01300</t>
+          <t>CL-05887</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>ET-00914</t>
+          <t>ET-01606</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>P-043549</t>
+          <t>P-006229</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>PR-00483</t>
+          <t>PR-00856</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>BR-00446</t>
+          <t>BR-00052</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>E-011782</t>
+          <t>E-001654</t>
         </is>
       </c>
       <c r="I37" s="2" t="n">
-        <v>45737</v>
+        <v>45777</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Producto defectuoso</t>
+          <t>No coincide con la descripción</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Rechazada</t>
+          <t>Pendiente</t>
         </is>
       </c>
     </row>
@@ -2482,50 +2482,50 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>C-004644</t>
+          <t>C-004396</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>CL-01411</t>
+          <t>CL-01697</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>ET-04644</t>
+          <t>ET-04396</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>P-003397</t>
+          <t>P-043981</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>PR-00035</t>
+          <t>PR-01232</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>BR-00472</t>
+          <t>BR-00376</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>E-012599</t>
+          <t>E-009720</t>
         </is>
       </c>
       <c r="I38" s="2" t="n">
-        <v>45740</v>
+        <v>45784</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Calidad inferior a lo esperado</t>
+          <t>Recibí otro artículo</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Procesada</t>
+          <t>Rechazada</t>
         </is>
       </c>
     </row>
@@ -2537,50 +2537,50 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>C-000589</t>
+          <t>C-002717</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>CL-02992</t>
+          <t>CL-02019</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>ET-00589</t>
+          <t>ET-02717</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>P-035740</t>
+          <t>P-044957</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>PR-01085</t>
+          <t>PR-00503</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>BR-00234</t>
+          <t>BR-00408</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>E-006361</t>
+          <t>E-010645</t>
         </is>
       </c>
       <c r="I39" s="2" t="n">
-        <v>45757</v>
+        <v>45881</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>No coincide con la descripción</t>
+          <t>No funciona correctamente</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Rechazada</t>
+          <t>Pendiente</t>
         </is>
       </c>
     </row>
@@ -2592,41 +2592,41 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>C-003662</t>
+          <t>C-002490</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>CL-02571</t>
+          <t>CL-06599</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>ET-03662</t>
+          <t>ET-02490</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>P-031034</t>
+          <t>P-051783</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>PR-00337</t>
+          <t>PR-00776</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>BR-00464</t>
+          <t>BR-00469</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>E-012395</t>
+          <t>E-012391</t>
         </is>
       </c>
       <c r="I40" s="2" t="n">
-        <v>45872</v>
+        <v>45822</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -2635,7 +2635,7 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Rechazada</t>
+          <t>Procesada</t>
         </is>
       </c>
     </row>
@@ -2647,45 +2647,45 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>C-001980</t>
+          <t>C-004270</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>CL-08839</t>
+          <t>CL-01394</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>ET-01980</t>
+          <t>ET-04270</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>P-046929</t>
+          <t>P-040285</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>PR-00557</t>
+          <t>PR-00470</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>BR-00425</t>
+          <t>BR-00365</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>E-011351</t>
+          <t>E-009623</t>
         </is>
       </c>
       <c r="I41" s="2" t="n">
-        <v>45796</v>
+        <v>45742</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Producto defectuoso</t>
+          <t>Cambio de opinión</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -2702,50 +2702,50 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>C-003300</t>
+          <t>C-001324</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>CL-05714</t>
+          <t>CL-05963</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>ET-03300</t>
+          <t>ET-01324</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>P-020475</t>
+          <t>P-053362</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>PR-01467</t>
+          <t>PR-01285</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>BR-00131</t>
+          <t>BR-00486</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>E-003711</t>
+          <t>E-012628</t>
         </is>
       </c>
       <c r="I42" s="2" t="n">
-        <v>45833</v>
+        <v>45776</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Problema con el embalaje</t>
+          <t>Tamaño incorrecto</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Procesada</t>
+          <t>Pendiente</t>
         </is>
       </c>
     </row>
@@ -2757,50 +2757,50 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>C-002116</t>
+          <t>C-000270</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>CL-07194</t>
+          <t>CL-09067</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>ET-02116</t>
+          <t>ET-00270</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>P-049470</t>
+          <t>P-030712</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>PR-01366</t>
+          <t>PR-00341</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>BR-00420</t>
+          <t>BR-00276</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>E-011093</t>
+          <t>E-007415</t>
         </is>
       </c>
       <c r="I43" s="2" t="n">
-        <v>45740</v>
+        <v>45848</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Error en el pedido</t>
+          <t>Producto incompleto</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Rechazada</t>
+          <t>Procesada</t>
         </is>
       </c>
     </row>
@@ -2812,50 +2812,50 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>C-000453</t>
+          <t>C-002914</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>CL-04376</t>
+          <t>CL-04652</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>ET-00453</t>
+          <t>ET-02914</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>P-026958</t>
+          <t>P-025447</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>PR-01231</t>
+          <t>PR-01379</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>BR-00241</t>
+          <t>BR-00230</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>E-006615</t>
+          <t>E-006040</t>
         </is>
       </c>
       <c r="I44" s="2" t="n">
-        <v>45860</v>
+        <v>45826</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Producto incompleto</t>
+          <t>Tamaño incorrecto</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Procesada</t>
         </is>
       </c>
     </row>
@@ -2867,50 +2867,50 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>C-000687</t>
+          <t>C-004284</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>CL-02816</t>
+          <t>CL-04711</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>ET-00687</t>
+          <t>ET-04284</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>P-019508</t>
+          <t>P-046403</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>PR-00940</t>
+          <t>PR-01274</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>BR-00174</t>
+          <t>BR-00422</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>E-004788</t>
+          <t>E-011101</t>
         </is>
       </c>
       <c r="I45" s="2" t="n">
-        <v>45810</v>
+        <v>45862</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Vencido o caducado</t>
+          <t>Llegó dañado</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Procesada</t>
+          <t>Pendiente</t>
         </is>
       </c>
     </row>
@@ -2922,50 +2922,50 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>C-001319</t>
+          <t>C-001531</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>CL-06435</t>
+          <t>CL-05513</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>ET-01319</t>
+          <t>ET-01531</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>P-045799</t>
+          <t>P-004341</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>PR-00525</t>
+          <t>PR-01231</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>BR-00419</t>
+          <t>BR-00427</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>E-010941</t>
+          <t>E-011323</t>
         </is>
       </c>
       <c r="I46" s="2" t="n">
-        <v>45792</v>
+        <v>45771</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Cliente no lo reconoce</t>
+          <t>Producto defectuoso</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Procesada</t>
+          <t>Rechazada</t>
         </is>
       </c>
     </row>
@@ -2977,50 +2977,50 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>C-002954</t>
+          <t>C-000853</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>CL-08865</t>
+          <t>CL-06412</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>ET-02954</t>
+          <t>ET-00853</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>P-016783</t>
+          <t>P-051767</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>PR-01498</t>
+          <t>PR-01414</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>BR-00027</t>
+          <t>BR-00469</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>E-000924</t>
+          <t>E-012389</t>
         </is>
       </c>
       <c r="I47" s="2" t="n">
-        <v>45884</v>
+        <v>45780</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Cambio de opinión</t>
+          <t>Recibí otro artículo</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Procesada</t>
         </is>
       </c>
     </row>
@@ -3032,45 +3032,45 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>C-000075</t>
+          <t>C-000072</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>CL-07123</t>
+          <t>CL-05237</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>ET-00075</t>
+          <t>ET-00072</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>P-015519</t>
+          <t>P-010594</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>PR-01252</t>
+          <t>PR-01011</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>BR-00137</t>
+          <t>BR-00092</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>E-003800</t>
+          <t>E-002670</t>
         </is>
       </c>
       <c r="I48" s="2" t="n">
-        <v>45827</v>
+        <v>45811</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Cambio de opinión</t>
+          <t>Recibí otro artículo</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -3087,50 +3087,50 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>C-002185</t>
+          <t>C-000034</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>CL-00012</t>
+          <t>CL-05705</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>ET-02185</t>
+          <t>ET-00034</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>P-040790</t>
+          <t>P-019922</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>PR-00467</t>
+          <t>PR-01250</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>BR-00463</t>
+          <t>BR-00178</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>E-012346</t>
+          <t>E-004784</t>
         </is>
       </c>
       <c r="I49" s="2" t="n">
-        <v>45890</v>
+        <v>45846</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Calidad inferior a lo esperado</t>
+          <t>Error en el pedido</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Procesada</t>
+          <t>Rechazada</t>
         </is>
       </c>
     </row>
@@ -3142,50 +3142,50 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>C-001705</t>
+          <t>C-000610</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>CL-07453</t>
+          <t>CL-08420</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>ET-01705</t>
+          <t>ET-00610</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>P-043269</t>
+          <t>P-032725</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>PR-00763</t>
+          <t>PR-00827</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>BR-00391</t>
+          <t>BR-00043</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>E-010513</t>
+          <t>E-001335</t>
         </is>
       </c>
       <c r="I50" s="2" t="n">
-        <v>45873</v>
+        <v>45808</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Cliente no lo reconoce</t>
+          <t>Calidad inferior a lo esperado</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Rechazada</t>
         </is>
       </c>
     </row>
@@ -3197,50 +3197,50 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>C-000812</t>
+          <t>C-001359</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>CL-05034</t>
+          <t>CL-06275</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>ET-00812</t>
+          <t>ET-01359</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>P-018472</t>
+          <t>P-013040</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>PR-00203</t>
+          <t>PR-00186</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>BR-00163</t>
+          <t>BR-00317</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>E-004586</t>
+          <t>E-008455</t>
         </is>
       </c>
       <c r="I51" s="2" t="n">
-        <v>45824</v>
+        <v>45850</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Problema con el embalaje</t>
+          <t>No coincide con la descripción</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Rechazada</t>
+          <t>Pendiente</t>
         </is>
       </c>
     </row>
@@ -3252,50 +3252,50 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>C-001867</t>
+          <t>C-002158</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>CL-05478</t>
+          <t>CL-00605</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>ET-01867</t>
+          <t>ET-02158</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>P-024179</t>
+          <t>P-031426</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>PR-00268</t>
+          <t>PR-00619</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>BR-00218</t>
+          <t>BR-00283</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>E-005829</t>
+          <t>E-007559</t>
         </is>
       </c>
       <c r="I52" s="2" t="n">
-        <v>45844</v>
+        <v>45890</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Cambio de opinión</t>
+          <t>Calidad inferior a lo esperado</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Procesada</t>
+          <t>Rechazada</t>
         </is>
       </c>
     </row>
@@ -3307,50 +3307,50 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>C-002717</t>
+          <t>C-004406</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>CL-02867</t>
+          <t>CL-04800</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>ET-02717</t>
+          <t>ET-04406</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>P-032154</t>
+          <t>P-044394</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>PR-00343</t>
+          <t>PR-01058</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>BR-00343</t>
+          <t>BR-00375</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>E-008908</t>
+          <t>E-009712</t>
         </is>
       </c>
       <c r="I53" s="2" t="n">
-        <v>45841</v>
+        <v>45835</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Llegó dañado</t>
+          <t>Retraso en la entrega</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Procesada</t>
         </is>
       </c>
     </row>
@@ -3362,45 +3362,45 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>C-000741</t>
+          <t>C-003948</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>CL-09780</t>
+          <t>CL-04571</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>ET-00741</t>
+          <t>ET-03948</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>P-016714</t>
+          <t>P-009240</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>PR-00940</t>
+          <t>PR-01390</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>BR-00058</t>
+          <t>BR-00081</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>E-001793</t>
+          <t>E-002304</t>
         </is>
       </c>
       <c r="I54" s="2" t="n">
-        <v>45813</v>
+        <v>45731</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Producto defectuoso</t>
+          <t>Retraso en la entrega</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -3417,50 +3417,50 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>C-004330</t>
+          <t>C-004230</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>CL-06446</t>
+          <t>CL-04464</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>ET-04330</t>
+          <t>ET-04230</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>P-041425</t>
+          <t>P-027774</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>PR-00456</t>
+          <t>PR-00327</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>BR-00005</t>
+          <t>BR-00250</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>E-000385</t>
+          <t>E-006675</t>
         </is>
       </c>
       <c r="I55" s="2" t="n">
-        <v>45832</v>
+        <v>45744</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Llegó dañado</t>
+          <t>Error en el pedido</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Procesada</t>
+          <t>Rechazada</t>
         </is>
       </c>
     </row>
@@ -3472,50 +3472,50 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>C-000750</t>
+          <t>C-003209</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>CL-09872</t>
+          <t>CL-00231</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>ET-00750</t>
+          <t>ET-03209</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>P-042440</t>
+          <t>P-016393</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>PR-01204</t>
+          <t>PR-00147</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>BR-00343</t>
+          <t>BR-00230</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>E-008947</t>
+          <t>E-005979</t>
         </is>
       </c>
       <c r="I56" s="2" t="n">
-        <v>45869</v>
+        <v>45863</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Cliente no lo reconoce</t>
+          <t>Tamaño incorrecto</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Procesada</t>
         </is>
       </c>
     </row>
@@ -3527,50 +3527,50 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>C-000266</t>
+          <t>C-003235</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>CL-09618</t>
+          <t>CL-03886</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>ET-00266</t>
+          <t>ET-03235</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>P-016321</t>
+          <t>P-037961</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>PR-00147</t>
+          <t>PR-00461</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>BR-00147</t>
+          <t>BR-00345</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>E-003904</t>
+          <t>E-009058</t>
         </is>
       </c>
       <c r="I57" s="2" t="n">
-        <v>45770</v>
+        <v>45837</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Llegó dañado</t>
+          <t>No coincide con la descripción</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Procesada</t>
+          <t>Pendiente</t>
         </is>
       </c>
     </row>
@@ -3582,50 +3582,50 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>C-000285</t>
+          <t>C-000846</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>CL-07964</t>
+          <t>CL-05448</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>ET-00285</t>
+          <t>ET-00846</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>P-018298</t>
+          <t>P-044813</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>PR-01498</t>
+          <t>PR-00505</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>BR-00318</t>
+          <t>BR-00406</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>E-008604</t>
+          <t>E-010629</t>
         </is>
       </c>
       <c r="I58" s="2" t="n">
-        <v>45753</v>
+        <v>45817</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>No funciona correctamente</t>
+          <t>Pedido duplicado</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Procesada</t>
+          <t>Pendiente</t>
         </is>
       </c>
     </row>
@@ -3637,45 +3637,45 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>C-000858</t>
+          <t>C-002820</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>CL-07125</t>
+          <t>CL-06238</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>ET-00858</t>
+          <t>ET-02820</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>P-004524</t>
+          <t>P-043685</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>PR-00056</t>
+          <t>PR-00517</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>BR-00040</t>
+          <t>BR-00250</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>E-001237</t>
+          <t>E-006673</t>
         </is>
       </c>
       <c r="I59" s="2" t="n">
-        <v>45878</v>
+        <v>45727</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Problema con el embalaje</t>
+          <t>Vencido o caducado</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -3692,45 +3692,45 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>C-000654</t>
+          <t>C-000688</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>CL-04532</t>
+          <t>CL-02178</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>ET-00654</t>
+          <t>ET-00688</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>P-016226</t>
+          <t>P-017546</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>PR-01184</t>
+          <t>PR-01396</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>BR-00146</t>
+          <t>BR-00157</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>E-003897</t>
+          <t>E-004283</t>
         </is>
       </c>
       <c r="I60" s="2" t="n">
-        <v>45765</v>
+        <v>45797</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Retraso en la entrega</t>
+          <t>Cambio de opinión</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -3747,50 +3747,50 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>C-004921</t>
+          <t>C-000424</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>CL-03590</t>
+          <t>CL-02362</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>ET-04921</t>
+          <t>ET-00424</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>P-014660</t>
+          <t>P-027165</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>PR-00176</t>
+          <t>PR-00295</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>BR-00129</t>
+          <t>BR-00243</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>E-003675</t>
+          <t>E-006563</t>
         </is>
       </c>
       <c r="I61" s="2" t="n">
-        <v>45848</v>
+        <v>45847</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Llegó dañado</t>
+          <t>Pedido duplicado</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Rechazada</t>
+          <t>Procesada</t>
         </is>
       </c>
     </row>
@@ -3802,50 +3802,50 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>C-004770</t>
+          <t>C-002735</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>CL-05807</t>
+          <t>CL-04618</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>ET-04770</t>
+          <t>ET-02735</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>P-043919</t>
+          <t>P-041767</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>PR-00477</t>
+          <t>PR-00499</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>BR-00295</t>
+          <t>BR-00123</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>E-007820</t>
+          <t>E-003492</t>
         </is>
       </c>
       <c r="I62" s="2" t="n">
-        <v>45831</v>
+        <v>45871</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Vencido o caducado</t>
+          <t>Error en el pedido</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Procesada</t>
+          <t>Pendiente</t>
         </is>
       </c>
     </row>
@@ -3857,50 +3857,50 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>C-003143</t>
+          <t>C-002415</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>CL-09026</t>
+          <t>CL-07647</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>ET-03143</t>
+          <t>ET-02415</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>P-019634</t>
+          <t>P-016700</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>PR-00222</t>
+          <t>PR-00862</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>BR-00175</t>
+          <t>BR-00152</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>E-004797</t>
+          <t>E-003881</t>
         </is>
       </c>
       <c r="I63" s="2" t="n">
-        <v>45777</v>
+        <v>45814</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Pedido duplicado</t>
+          <t>No funciona correctamente</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Procesada</t>
+          <t>Rechazada</t>
         </is>
       </c>
     </row>
@@ -3912,50 +3912,50 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>C-003869</t>
+          <t>C-002134</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>CL-06402</t>
+          <t>CL-05937</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>ET-03869</t>
+          <t>ET-02134</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>P-030320</t>
+          <t>P-035326</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>PR-00372</t>
+          <t>PR-00388</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>BR-00047</t>
+          <t>BR-00008</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>E-001579</t>
+          <t>E-000480</t>
         </is>
       </c>
       <c r="I64" s="2" t="n">
-        <v>45822</v>
+        <v>45756</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Recibí otro artículo</t>
+          <t>Llegó dañado</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Rechazada</t>
+          <t>Pendiente</t>
         </is>
       </c>
     </row>
@@ -3967,50 +3967,50 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>C-003698</t>
+          <t>C-000546</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>CL-05456</t>
+          <t>CL-08001</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>ET-03698</t>
+          <t>ET-00546</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>P-006122</t>
+          <t>P-035609</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>PR-00053</t>
+          <t>PR-01048</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>BR-00051</t>
+          <t>BR-00456</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>E-001674</t>
+          <t>E-011709</t>
         </is>
       </c>
       <c r="I65" s="2" t="n">
-        <v>45752</v>
+        <v>45805</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Cliente no lo reconoce</t>
+          <t>Calidad inferior a lo esperado</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Rechazada</t>
         </is>
       </c>
     </row>
@@ -4022,45 +4022,45 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>C-000376</t>
+          <t>C-004704</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>CL-04079</t>
+          <t>CL-03478</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>ET-00376</t>
+          <t>ET-04704</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>P-014393</t>
+          <t>P-018494</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>PR-01185</t>
+          <t>PR-00235</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>BR-00126</t>
+          <t>BR-00179</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>E-003619</t>
+          <t>E-004788</t>
         </is>
       </c>
       <c r="I66" s="2" t="n">
-        <v>45821</v>
+        <v>45781</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Vencido o caducado</t>
+          <t>Tamaño incorrecto</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -4077,45 +4077,45 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>C-004630</t>
+          <t>C-002497</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>CL-07621</t>
+          <t>CL-03825</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>ET-04630</t>
+          <t>ET-02497</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>P-010527</t>
+          <t>P-008292</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>PR-00102</t>
+          <t>PR-00094</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>BR-00182</t>
+          <t>BR-00076</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>E-004869</t>
+          <t>E-001935</t>
         </is>
       </c>
       <c r="I67" s="2" t="n">
-        <v>45817</v>
+        <v>45868</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Pedido duplicado</t>
+          <t>Vencido o caducado</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -4132,50 +4132,50 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>C-003110</t>
+          <t>C-001200</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>CL-08030</t>
+          <t>CL-01603</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>ET-03110</t>
+          <t>ET-01200</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>P-023971</t>
+          <t>P-048369</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>PR-00242</t>
+          <t>PR-00528</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>BR-00215</t>
+          <t>BR-00319</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>E-005804</t>
+          <t>E-008482</t>
         </is>
       </c>
       <c r="I68" s="2" t="n">
-        <v>45841</v>
+        <v>45717</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Calidad inferior a lo esperado</t>
+          <t>Tamaño incorrecto</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Procesada</t>
+          <t>Rechazada</t>
         </is>
       </c>
     </row>
@@ -4187,45 +4187,45 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>C-000150</t>
+          <t>C-004235</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>CL-06015</t>
+          <t>CL-06109</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>ET-00150</t>
+          <t>ET-04235</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>P-047733</t>
+          <t>P-048654</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>PR-01336</t>
+          <t>PR-00525</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>BR-00161</t>
+          <t>BR-00441</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>E-004513</t>
+          <t>E-011586</t>
         </is>
       </c>
       <c r="I69" s="2" t="n">
-        <v>45890</v>
+        <v>45748</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>No funciona correctamente</t>
+          <t>Producto defectuoso</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -4242,50 +4242,50 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>C-003143</t>
+          <t>C-001283</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>CL-09026</t>
+          <t>CL-00656</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>ET-03143</t>
+          <t>ET-01283</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>P-021513</t>
+          <t>P-027399</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>PR-00268</t>
+          <t>PR-00329</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>BR-00175</t>
+          <t>BR-00246</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>E-004797</t>
+          <t>E-006614</t>
         </is>
       </c>
       <c r="I70" s="2" t="n">
-        <v>45722</v>
+        <v>45821</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Error en el pedido</t>
+          <t>Producto defectuoso</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Rechazada</t>
+          <t>Procesada</t>
         </is>
       </c>
     </row>
@@ -4297,50 +4297,50 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>C-004219</t>
+          <t>C-002220</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>CL-08479</t>
+          <t>CL-01301</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>ET-04219</t>
+          <t>ET-02220</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>P-025906</t>
+          <t>P-033758</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>PR-00325</t>
+          <t>PR-00382</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>BR-00234</t>
+          <t>BR-00480</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>E-006360</t>
+          <t>E-012571</t>
         </is>
       </c>
       <c r="I71" s="2" t="n">
-        <v>45770</v>
+        <v>45876</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Llegó dañado</t>
+          <t>Tamaño incorrecto</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Rechazada</t>
+          <t>Procesada</t>
         </is>
       </c>
     </row>
@@ -4352,45 +4352,45 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>C-001889</t>
+          <t>C-002236</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>CL-00079</t>
+          <t>CL-05306</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>ET-01889</t>
+          <t>ET-02236</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>P-038957</t>
+          <t>P-013360</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>PR-00459</t>
+          <t>PR-00178</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>BR-00352</t>
+          <t>BR-00119</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>E-009481</t>
+          <t>E-003296</t>
         </is>
       </c>
       <c r="I72" s="2" t="n">
-        <v>45749</v>
+        <v>45765</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Error en el pedido</t>
+          <t>Problema con el embalaje</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -4407,50 +4407,50 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>C-004278</t>
+          <t>C-001142</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>CL-06063</t>
+          <t>CL-01722</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>ET-04278</t>
+          <t>ET-01142</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>P-026522</t>
+          <t>P-035138</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>PR-00325</t>
+          <t>PR-00419</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>BR-00059</t>
+          <t>BR-00346</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>E-001825</t>
+          <t>E-009093</t>
         </is>
       </c>
       <c r="I73" s="2" t="n">
-        <v>45733</v>
+        <v>45813</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Calidad inferior a lo esperado</t>
+          <t>Vencido o caducado</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Rechazada</t>
         </is>
       </c>
     </row>
@@ -4462,50 +4462,50 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>C-002524</t>
+          <t>C-002654</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>CL-05203</t>
+          <t>CL-02252</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>ET-02524</t>
+          <t>ET-02654</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>P-050693</t>
+          <t>P-002969</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>PR-00950</t>
+          <t>PR-00008</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>BR-00461</t>
+          <t>BR-00287</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>E-012249</t>
+          <t>E-007622</t>
         </is>
       </c>
       <c r="I74" s="2" t="n">
-        <v>45820</v>
+        <v>45849</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Cliente no lo reconoce</t>
+          <t>Llegó dañado</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Rechazada</t>
+          <t>Pendiente</t>
         </is>
       </c>
     </row>
@@ -4517,50 +4517,50 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>C-001797</t>
+          <t>C-000407</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>CL-09261</t>
+          <t>CL-08241</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>ET-01797</t>
+          <t>ET-00407</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>P-002940</t>
+          <t>P-001203</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>PR-00034</t>
+          <t>PR-01262</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>BR-00414</t>
+          <t>BR-00007</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>E-010823</t>
+          <t>E-000445</t>
         </is>
       </c>
       <c r="I75" s="2" t="n">
-        <v>45722</v>
+        <v>45881</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>No coincide con la descripción</t>
+          <t>Recibí otro artículo</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Procesada</t>
+          <t>Rechazada</t>
         </is>
       </c>
     </row>
@@ -4572,41 +4572,41 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>C-000654</t>
+          <t>C-001137</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>CL-04532</t>
+          <t>CL-04851</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>ET-00654</t>
+          <t>ET-01137</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>P-016226</t>
+          <t>P-002395</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>PR-01184</t>
+          <t>PR-01459</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>BR-00146</t>
+          <t>BR-00018</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>E-003897</t>
+          <t>E-000752</t>
         </is>
       </c>
       <c r="I76" s="2" t="n">
-        <v>45772</v>
+        <v>45792</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
@@ -4615,7 +4615,7 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Procesada</t>
         </is>
       </c>
     </row>
@@ -4627,50 +4627,50 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>C-002740</t>
+          <t>C-003965</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>CL-03208</t>
+          <t>CL-08722</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>ET-02740</t>
+          <t>ET-03965</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>P-026759</t>
+          <t>P-010482</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>PR-00295</t>
+          <t>PR-00139</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>BR-00387</t>
+          <t>BR-00171</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>E-010315</t>
+          <t>E-004667</t>
         </is>
       </c>
       <c r="I77" s="2" t="n">
-        <v>45869</v>
+        <v>45797</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Vencido o caducado</t>
+          <t>Error en el pedido</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>Rechazada</t>
+          <t>Procesada</t>
         </is>
       </c>
     </row>
@@ -4682,50 +4682,50 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>C-004577</t>
+          <t>C-002820</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>CL-05876</t>
+          <t>CL-06238</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>ET-04577</t>
+          <t>ET-02820</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>P-028016</t>
+          <t>P-017391</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>PR-00939</t>
+          <t>PR-00845</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>BR-00252</t>
+          <t>BR-00250</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>E-006804</t>
+          <t>E-006673</t>
         </is>
       </c>
       <c r="I78" s="2" t="n">
-        <v>45764</v>
+        <v>45871</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Error en el pedido</t>
+          <t>Producto defectuoso</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Rechazada</t>
+          <t>Pendiente</t>
         </is>
       </c>
     </row>
@@ -4737,45 +4737,45 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>C-004034</t>
+          <t>C-001920</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>CL-07199</t>
+          <t>CL-04690</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>ET-04034</t>
+          <t>ET-01920</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>P-015804</t>
+          <t>P-010617</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>PR-00828</t>
+          <t>PR-01139</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>BR-00267</t>
+          <t>BR-00092</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>E-006958</t>
+          <t>E-002656</t>
         </is>
       </c>
       <c r="I79" s="2" t="n">
-        <v>45717</v>
+        <v>45769</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Producto defectuoso</t>
+          <t>Cambio de opinión</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -4792,50 +4792,50 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>C-000002</t>
+          <t>C-003272</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>CL-07365</t>
+          <t>CL-03040</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>ET-00002</t>
+          <t>ET-03272</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>P-014118</t>
+          <t>P-014676</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>PR-00148</t>
+          <t>PR-00147</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>BR-00160</t>
+          <t>BR-00129</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>E-004468</t>
+          <t>E-003622</t>
         </is>
       </c>
       <c r="I80" s="2" t="n">
-        <v>45731</v>
+        <v>45865</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Problema con el embalaje</t>
+          <t>Tamaño incorrecto</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Procesada</t>
         </is>
       </c>
     </row>
@@ -4847,50 +4847,50 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>C-004939</t>
+          <t>C-002134</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>CL-03376</t>
+          <t>CL-05937</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>ET-04939</t>
+          <t>ET-02134</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>P-040594</t>
+          <t>P-035326</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>PR-01357</t>
+          <t>PR-00388</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>BR-00368</t>
+          <t>BR-00008</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>E-009770</t>
+          <t>E-000480</t>
         </is>
       </c>
       <c r="I81" s="2" t="n">
-        <v>45841</v>
+        <v>45740</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Pedido duplicado</t>
+          <t>Recibí otro artículo</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Procesada</t>
+          <t>Pendiente</t>
         </is>
       </c>
     </row>
@@ -4902,50 +4902,50 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>C-001764</t>
+          <t>C-004151</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>CL-05836</t>
+          <t>CL-03418</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>ET-01764</t>
+          <t>ET-04151</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>P-018153</t>
+          <t>P-035923</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>PR-01498</t>
+          <t>PR-01104</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>BR-00161</t>
+          <t>BR-00324</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>E-004497</t>
+          <t>E-008573</t>
         </is>
       </c>
       <c r="I82" s="2" t="n">
-        <v>45858</v>
+        <v>45863</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>No funciona correctamente</t>
+          <t>Pedido duplicado</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Procesada</t>
         </is>
       </c>
     </row>
@@ -4957,50 +4957,50 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>C-000827</t>
+          <t>C-003385</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>CL-04351</t>
+          <t>CL-08818</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>ET-00827</t>
+          <t>ET-03385</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>P-042356</t>
+          <t>P-006413</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>PR-00505</t>
+          <t>PR-01355</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>BR-00385</t>
+          <t>BR-00021</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>E-010255</t>
+          <t>E-000804</t>
         </is>
       </c>
       <c r="I83" s="2" t="n">
-        <v>45771</v>
+        <v>45793</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>No coincide con la descripción</t>
+          <t>No funciona correctamente</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Rechazada</t>
         </is>
       </c>
     </row>
@@ -5012,41 +5012,41 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>C-002526</t>
+          <t>C-003575</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>CL-00313</t>
+          <t>CL-02159</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>ET-02526</t>
+          <t>ET-03575</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>P-037109</t>
+          <t>P-044819</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>PR-00422</t>
+          <t>PR-00506</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>BR-00118</t>
+          <t>BR-00406</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>E-003292</t>
+          <t>E-010629</t>
         </is>
       </c>
       <c r="I84" s="2" t="n">
-        <v>45751</v>
+        <v>45829</v>
       </c>
       <c r="J84" t="inlineStr">
         <is>
@@ -5067,45 +5067,45 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>C-002391</t>
+          <t>C-003702</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>CL-07006</t>
+          <t>CL-03021</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>ET-02391</t>
+          <t>ET-03702</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>P-020496</t>
+          <t>P-027270</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>PR-01006</t>
+          <t>PR-00690</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>BR-00185</t>
+          <t>BR-00244</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>E-004887</t>
+          <t>E-006574</t>
         </is>
       </c>
       <c r="I85" s="2" t="n">
-        <v>45730</v>
+        <v>45744</v>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Producto defectuoso</t>
+          <t>No funciona correctamente</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -5122,50 +5122,50 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>C-004438</t>
+          <t>C-001410</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>CL-09378</t>
+          <t>CL-03277</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>ET-04438</t>
+          <t>ET-01410</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>P-022577</t>
+          <t>P-036926</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>PR-00268</t>
+          <t>PR-00412</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>BR-00322</t>
+          <t>BR-00016</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>E-008669</t>
+          <t>E-000716</t>
         </is>
       </c>
       <c r="I86" s="2" t="n">
-        <v>45787</v>
+        <v>45755</v>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Vencido o caducado</t>
+          <t>Retraso en la entrega</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Procesada</t>
         </is>
       </c>
     </row>
@@ -5177,41 +5177,41 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>C-004884</t>
+          <t>C-001357</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>CL-09278</t>
+          <t>CL-04888</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>ET-04884</t>
+          <t>ET-01357</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>P-045410</t>
+          <t>P-029723</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>PR-01392</t>
+          <t>PR-00348</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>BR-00287</t>
+          <t>BR-00269</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>E-007719</t>
+          <t>E-007119</t>
         </is>
       </c>
       <c r="I87" s="2" t="n">
-        <v>45786</v>
+        <v>45892</v>
       </c>
       <c r="J87" t="inlineStr">
         <is>
@@ -5220,7 +5220,7 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Rechazada</t>
         </is>
       </c>
     </row>
@@ -5232,50 +5232,50 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>C-000511</t>
+          <t>C-001589</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>CL-02514</t>
+          <t>CL-04650</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>ET-00511</t>
+          <t>ET-01589</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>P-046137</t>
+          <t>P-044403</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>PR-00519</t>
+          <t>PR-00515</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>BR-00420</t>
+          <t>BR-00407</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>E-011102</t>
+          <t>E-010636</t>
         </is>
       </c>
       <c r="I88" s="2" t="n">
-        <v>45722</v>
+        <v>45850</v>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Retraso en la entrega</t>
+          <t>Vencido o caducado</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>Rechazada</t>
+          <t>Pendiente</t>
         </is>
       </c>
     </row>
@@ -5287,45 +5287,45 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>C-004703</t>
+          <t>C-000662</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>CL-08251</t>
+          <t>CL-03298</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>ET-04703</t>
+          <t>ET-00662</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>P-050969</t>
+          <t>P-045538</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>PR-00608</t>
+          <t>PR-00517</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>BR-00463</t>
+          <t>BR-00416</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>E-012339</t>
+          <t>E-010699</t>
         </is>
       </c>
       <c r="I89" s="2" t="n">
-        <v>45824</v>
+        <v>45837</v>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Producto defectuoso</t>
+          <t>Llegó dañado</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -5342,45 +5342,45 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>C-001796</t>
+          <t>C-000557</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>CL-04760</t>
+          <t>CL-04930</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>ET-01796</t>
+          <t>ET-00557</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>P-032989</t>
+          <t>P-023521</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>PR-01044</t>
+          <t>PR-00250</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>BR-00359</t>
+          <t>BR-00210</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>E-009611</t>
+          <t>E-005659</t>
         </is>
       </c>
       <c r="I90" s="2" t="n">
-        <v>45788</v>
+        <v>45854</v>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Error en el pedido</t>
+          <t>Producto incompleto</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -5397,50 +5397,50 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>C-004144</t>
+          <t>C-003965</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>CL-01422</t>
+          <t>CL-08722</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>ET-04144</t>
+          <t>ET-03965</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>P-034860</t>
+          <t>P-035605</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>PR-01085</t>
+          <t>PR-00383</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>BR-00310</t>
+          <t>BR-00171</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>E-008310</t>
+          <t>E-004667</t>
         </is>
       </c>
       <c r="I91" s="2" t="n">
-        <v>45876</v>
+        <v>45863</v>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>No funciona correctamente</t>
+          <t>Cambio de opinión</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>Procesada</t>
+          <t>Rechazada</t>
         </is>
       </c>
     </row>
@@ -5452,45 +5452,45 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>C-001652</t>
+          <t>C-003710</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>CL-08446</t>
+          <t>CL-06527</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>ET-01652</t>
+          <t>ET-03710</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>P-013653</t>
+          <t>P-039644</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>PR-00708</t>
+          <t>PR-00436</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>BR-00121</t>
+          <t>BR-00358</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>E-003454</t>
+          <t>E-009492</t>
         </is>
       </c>
       <c r="I92" s="2" t="n">
-        <v>45807</v>
+        <v>45840</v>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Retraso en la entrega</t>
+          <t>Cambio de opinión</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -5507,50 +5507,50 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>C-003157</t>
+          <t>C-004216</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>CL-05573</t>
+          <t>CL-01404</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>ET-03157</t>
+          <t>ET-04216</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>P-010751</t>
+          <t>P-038085</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>PR-00105</t>
+          <t>PR-00434</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>BR-00093</t>
+          <t>BR-00260</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>E-002729</t>
+          <t>E-006775</t>
         </is>
       </c>
       <c r="I93" s="2" t="n">
-        <v>45825</v>
+        <v>45726</v>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Calidad inferior a lo esperado</t>
+          <t>Recibí otro artículo</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Rechazada</t>
         </is>
       </c>
     </row>
@@ -5562,50 +5562,50 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>C-003358</t>
+          <t>C-002048</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>CL-03574</t>
+          <t>CL-00982</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>ET-03358</t>
+          <t>ET-02048</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>P-034571</t>
+          <t>P-009708</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>PR-00415</t>
+          <t>PR-00614</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>BR-00312</t>
+          <t>BR-00407</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>E-008430</t>
+          <t>E-010637</t>
         </is>
       </c>
       <c r="I94" s="2" t="n">
-        <v>45731</v>
+        <v>45743</v>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Problema con el embalaje</t>
+          <t>Cliente no lo reconoce</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>Procesada</t>
+          <t>Pendiente</t>
         </is>
       </c>
     </row>
@@ -5617,50 +5617,50 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>C-001203</t>
+          <t>C-004833</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>CL-09002</t>
+          <t>CL-09410</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>ET-01203</t>
+          <t>ET-04833</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>P-022176</t>
+          <t>P-001454</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>PR-00797</t>
+          <t>PR-01147</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>BR-00198</t>
+          <t>BR-00321</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>E-005447</t>
+          <t>E-008511</t>
         </is>
       </c>
       <c r="I95" s="2" t="n">
-        <v>45732</v>
+        <v>45727</v>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>Producto defectuoso</t>
+          <t>Recibí otro artículo</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>Procesada</t>
+          <t>Pendiente</t>
         </is>
       </c>
     </row>
@@ -5672,41 +5672,41 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>C-000298</t>
+          <t>C-001881</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>CL-02498</t>
+          <t>CL-04248</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>ET-00298</t>
+          <t>ET-01881</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>P-046767</t>
+          <t>P-029407</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>PR-00555</t>
+          <t>PR-00336</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>BR-00424</t>
+          <t>BR-00268</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>E-011312</t>
+          <t>E-006987</t>
         </is>
       </c>
       <c r="I96" s="2" t="n">
-        <v>45882</v>
+        <v>45875</v>
       </c>
       <c r="J96" t="inlineStr">
         <is>
@@ -5715,7 +5715,7 @@
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Procesada</t>
         </is>
       </c>
     </row>
@@ -5727,45 +5727,45 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>C-001957</t>
+          <t>C-004368</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>CL-03032</t>
+          <t>CL-03080</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>ET-01957</t>
+          <t>ET-04368</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>P-051504</t>
+          <t>P-000208</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>PR-00791</t>
+          <t>PR-00027</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>BR-00466</t>
+          <t>BR-00139</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>E-012469</t>
+          <t>E-003795</t>
         </is>
       </c>
       <c r="I97" s="2" t="n">
-        <v>45742</v>
+        <v>45765</v>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>Calidad inferior a lo esperado</t>
+          <t>Producto defectuoso</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -5782,45 +5782,45 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>C-003484</t>
+          <t>C-004939</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>CL-09963</t>
+          <t>CL-05503</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>ET-03484</t>
+          <t>ET-04939</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>P-020349</t>
+          <t>P-028310</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>PR-00195</t>
+          <t>PR-00315</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>BR-00105</t>
+          <t>BR-00030</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>E-002897</t>
+          <t>E-000906</t>
         </is>
       </c>
       <c r="I98" s="2" t="n">
-        <v>45738</v>
+        <v>45763</v>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>Retraso en la entrega</t>
+          <t>No coincide con la descripción</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -5837,45 +5837,45 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>C-003177</t>
+          <t>C-003175</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>CL-09191</t>
+          <t>CL-07549</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>ET-03177</t>
+          <t>ET-03175</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>P-047622</t>
+          <t>P-020149</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>PR-00845</t>
+          <t>PR-00232</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>BR-00431</t>
+          <t>BR-00058</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>E-011533</t>
+          <t>E-001758</t>
         </is>
       </c>
       <c r="I99" s="2" t="n">
-        <v>45753</v>
+        <v>45814</v>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>Producto defectuoso</t>
+          <t>Recibí otro artículo</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -5892,50 +5892,50 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>C-002495</t>
+          <t>C-003838</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>CL-02019</t>
+          <t>CL-09293</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>ET-02495</t>
+          <t>ET-03838</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>P-032095</t>
+          <t>P-015197</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>PR-01023</t>
+          <t>PR-00149</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>BR-00326</t>
+          <t>BR-00276</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>E-008729</t>
+          <t>E-007428</t>
         </is>
       </c>
       <c r="I100" s="2" t="n">
-        <v>45850</v>
+        <v>45803</v>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>Recibí otro artículo</t>
+          <t>Calidad inferior a lo esperado</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>Procesada</t>
+          <t>Rechazada</t>
         </is>
       </c>
     </row>
@@ -5947,45 +5947,45 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>C-002453</t>
+          <t>C-002104</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>CL-06225</t>
+          <t>CL-07061</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>ET-02453</t>
+          <t>ET-02104</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>P-025327</t>
+          <t>P-016020</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>PR-00321</t>
+          <t>PR-01160</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>BR-00285</t>
+          <t>BR-00160</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>E-007691</t>
+          <t>E-004392</t>
         </is>
       </c>
       <c r="I101" s="2" t="n">
-        <v>45862</v>
+        <v>45769</v>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>Pedido duplicado</t>
+          <t>Vencido o caducado</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
